--- a/biology/Botanique/Ulrich_Brunner/Ulrich_Brunner.xlsx
+++ b/biology/Botanique/Ulrich_Brunner/Ulrich_Brunner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-‘Ulrich Brunner’, le plus souvent ‘Ulrich Brunner Fils’, est un cultivar de rosier arbustif à floraison remontante, obtenu en 1881 par le rosiériste lyonnais Antoine Levet (1818-1891)[1]. Il était fort en vogue à la Belle Époque. L'écrivain russe Anton Tchekhov le fit planter dans le jardin de sa villa de Yalta[2]. 
+‘Ulrich Brunner’, le plus souvent ‘Ulrich Brunner Fils’, est un cultivar de rosier arbustif à floraison remontante, obtenu en 1881 par le rosiériste lyonnais Antoine Levet (1818-1891). Il était fort en vogue à la Belle Époque. L'écrivain russe Anton Tchekhov le fit planter dans le jardin de sa villa de Yalta. 
 </t>
         </is>
       </c>
@@ -512,13 +524,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier peut atteindre 175 cm de hauteur[3] et 120 cm de largeur[4].
-Il donne de grosses roses (10 cm) en bouquets rouge cerise pâlissant au rose carmin[5]. Ses fleurs sont légèrement parfumées. Son feuillage est vert foncé et luisant ; ce rosier est presque inerme. Sa floraison est remontante.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier peut atteindre 175 cm de hauteur et 120 cm de largeur.
+Il donne de grosses roses (10 cm) en bouquets rouge cerise pâlissant au rose carmin. Ses fleurs sont légèrement parfumées. Son feuillage est vert foncé et luisant ; ce rosier est presque inerme. Sa floraison est remontante.
 C'est une variété peu exigeante qui s'adapte à tout type de terrain avec un peu de soins, ce qui explique sa longévité et son succès dans les catalogues de roses anciennes. On peut notamment l'admirer à l'Europa-Rosarium de Sangerhausen en Allemagne.
 D'après le Journal des roses dans son numéro de juillet 1888, il serait issu de ‘Paul Neyron’ (Levet, 1869).
-Il doit son nom à Ulrich Brunner (ou Brünner), rosiériste à Lausanne et ami de Levet[6].
+Il doit son nom à Ulrich Brunner (ou Brünner), rosiériste à Lausanne et ami de Levet.
 </t>
         </is>
       </c>
